--- a/data/trans_dic/P34B01_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34B01_R-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.6702248729780781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7913037396660673</v>
+        <v>0.7913037396660674</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.459887622476841</v>
@@ -664,7 +664,7 @@
         <v>0.6742396556614247</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.7793869455716316</v>
+        <v>0.7793869455716315</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4059213947337978</v>
+        <v>0.4116562525342325</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6115336783951245</v>
+        <v>0.6129890220907647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7380861445974859</v>
+        <v>0.734740404745749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3996404271501618</v>
+        <v>0.4013474752756369</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6225943342906548</v>
+        <v>0.6192670136457353</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7262038058235573</v>
+        <v>0.725709661975022</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4222055336594182</v>
+        <v>0.4258636923676863</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6330836105897961</v>
+        <v>0.6325484355890177</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7466553411488466</v>
+        <v>0.7431177445999911</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.532075476183214</v>
+        <v>0.5341976201243793</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7227124003305841</v>
+        <v>0.7245618229380535</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.838937252451621</v>
+        <v>0.8332831725060046</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5211648070910565</v>
+        <v>0.5252536299444241</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7339815512547544</v>
+        <v>0.7343834170114658</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8017163938800522</v>
+        <v>0.8037752129086481</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5094991036525721</v>
+        <v>0.5122942155318005</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7100430901375193</v>
+        <v>0.713787833770627</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8077212924249363</v>
+        <v>0.8074151284431704</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5655916452606574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6230318689799095</v>
+        <v>0.6230318689799096</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.4951515273222162</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4982637382253933</v>
+        <v>0.4942347639855879</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5163559112526012</v>
+        <v>0.5189508095586419</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5656362928257257</v>
+        <v>0.566159262174519</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4505974110706191</v>
+        <v>0.4512648346992508</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5168941634209736</v>
+        <v>0.5193916627407524</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4976539588749901</v>
+        <v>0.5048922143529103</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4842666716397995</v>
+        <v>0.4841515751915545</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5349332455910093</v>
+        <v>0.5346522073801958</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5474133040719622</v>
+        <v>0.5479043486241431</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5904970381195511</v>
+        <v>0.589352070991209</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.608317707940488</v>
+        <v>0.6132336334580042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6804776941197782</v>
+        <v>0.6714630262817695</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5447731369643405</v>
+        <v>0.5426233977882391</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6102342260132422</v>
+        <v>0.6108333956892276</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5803419132029289</v>
+        <v>0.5797492469786363</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5498199739283158</v>
+        <v>0.552623214159271</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.598608041683013</v>
+        <v>0.5955204596569421</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6119383869200441</v>
+        <v>0.613375211742096</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.6255013162843301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4961437668704332</v>
+        <v>0.4961437668704331</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.5576721761121274</v>
@@ -882,7 +882,7 @@
         <v>0.6574409282005794</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.5111643695601004</v>
+        <v>0.5111643695601003</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3795427691397355</v>
+        <v>0.3885112712469492</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5686360767365275</v>
+        <v>0.5732214319997614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4399415020349435</v>
+        <v>0.4452681892252981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5008187817528734</v>
+        <v>0.4984013631673739</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.634501905991009</v>
+        <v>0.6360302128909714</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4797551127567842</v>
+        <v>0.4815282679243126</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4620823875985994</v>
+        <v>0.4595812256957516</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6171480867033777</v>
+        <v>0.6222671184868908</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4776742375513698</v>
+        <v>0.4739946728795124</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4958251258618289</v>
+        <v>0.4900004204191481</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6737721061263843</v>
+        <v>0.6740508907514798</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5484786032297844</v>
+        <v>0.5515199977300752</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6104205499259687</v>
+        <v>0.6091819533609727</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7430716734941077</v>
+        <v>0.7374290843251951</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5693971873745807</v>
+        <v>0.5677760216150325</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5415035084174009</v>
+        <v>0.5378628076137565</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6896118579429129</v>
+        <v>0.6956847150729455</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5470672480015731</v>
+        <v>0.541334896889929</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.7207243066628783</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5013838690609276</v>
+        <v>0.5013838690609277</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.4514255123423638</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3121031194267878</v>
+        <v>0.3069600307165106</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6699910316483693</v>
+        <v>0.668918836705769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4393908191413221</v>
+        <v>0.4338359223255375</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4034104116057201</v>
+        <v>0.400600609739612</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.605015911797762</v>
+        <v>0.6077712677992271</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5019528777217152</v>
+        <v>0.5062049704440081</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3733320095090415</v>
+        <v>0.368669319015333</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6495490169931113</v>
+        <v>0.6520419798020332</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4877817455052265</v>
+        <v>0.4874279513454602</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4200106150364795</v>
+        <v>0.4093038558048248</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.766152660645119</v>
+        <v>0.7689152006640468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5677061840703362</v>
+        <v>0.5645571850058491</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5013540100015246</v>
+        <v>0.5022563482418064</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7043292713365219</v>
+        <v>0.7061591790119277</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5985844691321287</v>
+        <v>0.6036162106579428</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4445705754057399</v>
+        <v>0.443184742035979</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7190753761016904</v>
+        <v>0.7241147590367191</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5687003796777186</v>
+        <v>0.5721726896977077</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.4402671969560024</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.9201746160697547</v>
+        <v>0.9201746160697545</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.4425308584291666</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3449312187467005</v>
+        <v>0.3513813291084732</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4811964760906321</v>
+        <v>0.4814531565217365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8954932691324831</v>
+        <v>0.8962616601926904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4008722717449351</v>
+        <v>0.4019526674269388</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3765767815480771</v>
+        <v>0.3694721771243941</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8944746395446415</v>
+        <v>0.8903775110202251</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3976614489367012</v>
+        <v>0.3938286935334427</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4461711606262322</v>
+        <v>0.451736338308905</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9023902107394972</v>
+        <v>0.9051099478376695</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4913635210822996</v>
+        <v>0.4878239724777418</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6201887524138036</v>
+        <v>0.6186712765862714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9563465326534344</v>
+        <v>0.9567425346006508</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5363769014824104</v>
+        <v>0.5356684480510805</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5048512035135316</v>
+        <v>0.5065136019141843</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.939755907851648</v>
+        <v>0.9410334172707135</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4982109017479469</v>
+        <v>0.4884668474054861</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5421896342030784</v>
+        <v>0.5443377465014971</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9414495962704016</v>
+        <v>0.9430521614246277</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.4316313737881982</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.4341540238217711</v>
+        <v>0.4341540238217709</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.5022780298643881</v>
@@ -1209,7 +1209,7 @@
         <v>0.3805836142924416</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.4147211249368181</v>
+        <v>0.414721124936818</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.376499889728948</v>
+        <v>0.3798455420292319</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2696934939757475</v>
+        <v>0.2695175342011147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3432928931424502</v>
+        <v>0.3412518302093409</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5091823053498139</v>
+        <v>0.5048351587498879</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3683685563771718</v>
+        <v>0.3740956482080411</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3862391492852077</v>
+        <v>0.3848429818309242</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4586907049500356</v>
+        <v>0.4607187056337696</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3377593703673052</v>
+        <v>0.3418754035408045</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3803927249492828</v>
+        <v>0.3786625958281931</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4996318131673063</v>
+        <v>0.4973521738352221</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.386072564937838</v>
+        <v>0.387137389714066</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4507005727933543</v>
+        <v>0.449197528183692</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6248036079735054</v>
+        <v>0.6218152574879331</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4890671350374748</v>
+        <v>0.4922873352311582</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4815733637815574</v>
+        <v>0.4827674966522271</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5456139655406641</v>
+        <v>0.545639822185353</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4228349737644698</v>
+        <v>0.4245909933462864</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4515186347863165</v>
+        <v>0.4510457525856841</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.5519597626836117</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.6258115216360378</v>
+        <v>0.6258115216360379</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.5147465224361781</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4345481659248155</v>
+        <v>0.433050968509898</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5030855640942996</v>
+        <v>0.5046033382331352</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6471887522359084</v>
+        <v>0.6487822473317895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5102581226011283</v>
+        <v>0.5126283695323718</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5152709379084357</v>
+        <v>0.5098680974638863</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5880773681946196</v>
+        <v>0.5939887171554894</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4878330628493567</v>
+        <v>0.4848406837051467</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5221666833904884</v>
+        <v>0.5198225787787798</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6324991584963076</v>
+        <v>0.6303934688875918</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5187714323179086</v>
+        <v>0.513491153290469</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5880333470887729</v>
+        <v>0.5894122111582853</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7292728081540376</v>
+        <v>0.7295345482779775</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5914115014047697</v>
+        <v>0.5925855709008007</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5914654864793233</v>
+        <v>0.586767570518101</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6545968021592747</v>
+        <v>0.6616590276119616</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5428220045691942</v>
+        <v>0.5428870960395387</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5749088749917066</v>
+        <v>0.5781835018996729</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6848202270593599</v>
+        <v>0.6818862773400319</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1409,7 @@
         <v>0.4271878306212648</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.7424853270210391</v>
+        <v>0.7424853270210392</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.4286740150869067</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3659085384302484</v>
+        <v>0.3629989627062719</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.392242477432051</v>
+        <v>0.3888723912032599</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7070785260884144</v>
+        <v>0.70912279298986</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3915426717186173</v>
+        <v>0.3936210761406224</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3509306133196978</v>
+        <v>0.3538012122274617</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6443222863099447</v>
+        <v>0.6491400020851792</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3937059395668204</v>
+        <v>0.3914089213827848</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3816870305117725</v>
+        <v>0.3804102712738796</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6884431065535708</v>
+        <v>0.6876274934517942</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4375660775495591</v>
+        <v>0.44070432155019</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4663096898961034</v>
+        <v>0.4604382433170709</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7739252383835493</v>
+        <v>0.7720448920174767</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4644445393284768</v>
+        <v>0.4667188209963266</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4217490894194496</v>
+        <v>0.4244257660529562</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7032965481125264</v>
+        <v>0.7024486323485605</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4427217189168804</v>
+        <v>0.4394365030217754</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4311713816081403</v>
+        <v>0.4320135063962863</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7307024330183832</v>
+        <v>0.7289856646846519</v>
       </c>
     </row>
     <row r="28">
@@ -1527,7 +1527,7 @@
         <v>0.5337618597587722</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6237647099923262</v>
+        <v>0.6237647099923264</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.4698903478841708</v>
@@ -1536,7 +1536,7 @@
         <v>0.5378014160647645</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.6393243907554478</v>
+        <v>0.639324390755448</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4280556035553459</v>
+        <v>0.4271492689329223</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5238847052660197</v>
+        <v>0.523404012320373</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6374400398937949</v>
+        <v>0.6379708143317498</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4761864461322814</v>
+        <v>0.474988062442779</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5169319926089898</v>
+        <v>0.5171707000506428</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6093393542026443</v>
+        <v>0.6112805113001543</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4566768228383484</v>
+        <v>0.4578624177933006</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5258644574518868</v>
+        <v>0.5255009593056424</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6290207339339932</v>
+        <v>0.6276455250946544</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4626216721760857</v>
+        <v>0.4634695588037939</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5584070065620342</v>
+        <v>0.558611519327176</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6722979194181645</v>
+        <v>0.6748607006069125</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.512062734673709</v>
+        <v>0.5105704702176472</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5514292837989937</v>
+        <v>0.5509438818930049</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6385713874974336</v>
+        <v>0.6365786352349063</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4827371829782903</v>
+        <v>0.4822018116182441</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5490599656309405</v>
+        <v>0.5495162567142472</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6507376301441509</v>
+        <v>0.6501188707279886</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>119165</v>
+        <v>120849</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>179645</v>
+        <v>180072</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>235335</v>
+        <v>234268</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>114795</v>
+        <v>115285</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>179745</v>
+        <v>178784</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>229162</v>
+        <v>229006</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>245222</v>
+        <v>247347</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>368748</v>
+        <v>368437</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>473683</v>
+        <v>471438</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>156200</v>
+        <v>156823</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>212305</v>
+        <v>212848</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>267491</v>
+        <v>265688</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>149702</v>
+        <v>150876</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>211903</v>
+        <v>212019</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>252990</v>
+        <v>253640</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>295923</v>
+        <v>297547</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>413575</v>
+        <v>415756</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>512423</v>
+        <v>512229</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>251886</v>
+        <v>249849</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>259508</v>
+        <v>260812</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>299400</v>
+        <v>299677</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>235154</v>
+        <v>235502</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>270379</v>
+        <v>271685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>269864</v>
+        <v>273789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>497535</v>
+        <v>497417</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>548659</v>
+        <v>548371</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>586602</v>
+        <v>587128</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>298512</v>
+        <v>297933</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>305725</v>
+        <v>308196</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>360188</v>
+        <v>355416</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>284301</v>
+        <v>283179</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>319204</v>
+        <v>319517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>314704</v>
+        <v>314382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>564884</v>
+        <v>567765</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>613968</v>
+        <v>610801</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>655746</v>
+        <v>657286</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>122989</v>
+        <v>125896</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>181148</v>
+        <v>182608</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>139018</v>
+        <v>140702</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>170789</v>
+        <v>169965</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>213389</v>
+        <v>213903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>170667</v>
+        <v>171297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>307315</v>
+        <v>305652</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>404154</v>
+        <v>407507</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>320869</v>
+        <v>318397</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>160670</v>
+        <v>158783</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>214640</v>
+        <v>214729</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>173315</v>
+        <v>174276</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>208166</v>
+        <v>207743</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>249902</v>
+        <v>248004</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>202556</v>
+        <v>201979</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>360136</v>
+        <v>357714</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>451609</v>
+        <v>455586</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>367482</v>
+        <v>363631</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>116721</v>
+        <v>114798</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>247873</v>
+        <v>247476</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>161936</v>
+        <v>159889</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>156907</v>
+        <v>155814</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>234312</v>
+        <v>235379</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>208123</v>
+        <v>209886</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>284827</v>
+        <v>281270</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>491869</v>
+        <v>493757</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>382018</v>
+        <v>381741</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>157076</v>
+        <v>153072</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>283449</v>
+        <v>284471</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>209226</v>
+        <v>208066</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>195002</v>
+        <v>195353</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>272775</v>
+        <v>273483</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>248189</v>
+        <v>250276</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>339178</v>
+        <v>338120</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>544518</v>
+        <v>548334</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>445391</v>
+        <v>448111</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>73339</v>
+        <v>74710</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>101639</v>
+        <v>101693</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>184172</v>
+        <v>184330</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>88028</v>
+        <v>88265</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>82315</v>
+        <v>80762</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>202887</v>
+        <v>201958</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>171873</v>
+        <v>170216</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>191768</v>
+        <v>194160</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>390273</v>
+        <v>391449</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>104473</v>
+        <v>103720</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>130997</v>
+        <v>130676</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>196687</v>
+        <v>196768</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>117784</v>
+        <v>117628</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>110354</v>
+        <v>110717</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>213158</v>
+        <v>213448</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>215331</v>
+        <v>211120</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>233037</v>
+        <v>233961</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>407166</v>
+        <v>407859</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>103154</v>
+        <v>104070</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>70963</v>
+        <v>70916</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>92932</v>
+        <v>92379</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>142587</v>
+        <v>141369</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>100607</v>
+        <v>102171</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>101871</v>
+        <v>101502</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>254120</v>
+        <v>255244</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>181119</v>
+        <v>183327</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>203304</v>
+        <v>202379</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>136890</v>
+        <v>136265</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>101585</v>
+        <v>101865</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>122008</v>
+        <v>121601</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>174964</v>
+        <v>174128</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>133572</v>
+        <v>134451</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>127015</v>
+        <v>127330</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>302277</v>
+        <v>302291</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>226740</v>
+        <v>227682</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>241317</v>
+        <v>241065</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>287624</v>
+        <v>286633</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>330305</v>
+        <v>331301</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>463054</v>
+        <v>464194</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>354044</v>
+        <v>355689</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>356204</v>
+        <v>352469</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>451912</v>
+        <v>456455</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>661377</v>
+        <v>657320</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>703803</v>
+        <v>700644</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>938592</v>
+        <v>935467</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>343370</v>
+        <v>339875</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>386078</v>
+        <v>386983</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>521784</v>
+        <v>521971</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>410353</v>
+        <v>411167</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>408877</v>
+        <v>405629</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>503029</v>
+        <v>508457</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>735928</v>
+        <v>736016</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>774892</v>
+        <v>779306</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1016233</v>
+        <v>1011880</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>285079</v>
+        <v>282812</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>305393</v>
+        <v>302769</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>559846</v>
+        <v>561464</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>322574</v>
+        <v>324286</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>289927</v>
+        <v>292299</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>533747</v>
+        <v>537738</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>631091</v>
+        <v>627409</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>612512</v>
+        <v>610463</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1115387</v>
+        <v>1114065</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>340907</v>
+        <v>343352</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>363061</v>
+        <v>358489</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>612773</v>
+        <v>611284</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>382634</v>
+        <v>384508</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>348435</v>
+        <v>350647</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>582600</v>
+        <v>581898</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>709661</v>
+        <v>704395</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>691922</v>
+        <v>693274</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1183853</v>
+        <v>1181072</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1465967</v>
+        <v>1462863</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1778248</v>
+        <v>1776616</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2241451</v>
+        <v>2243317</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1693517</v>
+        <v>1689255</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1832287</v>
+        <v>1833133</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2264069</v>
+        <v>2271282</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>3188118</v>
+        <v>3196395</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>3648917</v>
+        <v>3646394</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>4549043</v>
+        <v>4539098</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1584346</v>
+        <v>1587249</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1895429</v>
+        <v>1896123</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2364023</v>
+        <v>2373034</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1821108</v>
+        <v>1815800</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1954564</v>
+        <v>1952844</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2372684</v>
+        <v>2365280</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>3370049</v>
+        <v>3366312</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3809868</v>
+        <v>3813034</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4706099</v>
+        <v>4701624</v>
       </c>
     </row>
     <row r="40">
